--- a/Reports/day4/tp4_4.xlsx
+++ b/Reports/day4/tp4_4.xlsx
@@ -201,30 +201,34 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -509,75 +513,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="117.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
@@ -591,7 +581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
         <v>7</v>
@@ -636,7 +626,7 @@
         <v>183400</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="8" t="s">
         <v>12</v>
@@ -647,136 +637,94 @@
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
